--- a/Import/Dagri Province.xlsx
+++ b/Import/Dagri Province.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\Lokasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\Lokasi\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA810E4-894B-4EC7-AC50-8EA8E2A4082A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669E0FA0-44F2-46DA-A305-7A6F50C21BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{5C420FAF-F48C-4C0A-8892-5A4E93837E8B}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>dagri_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ACEH</t>
   </si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Table Dagri Province</t>
   </si>
 </sst>
 </file>
@@ -550,9 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0C32C1-DA60-49FE-A80A-E1C16ABAFDDE}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -560,13 +561,17 @@
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -622,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +659,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +667,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +675,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -678,7 +683,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +691,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +699,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +707,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -710,7 +715,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +723,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +731,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -734,7 +739,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +747,7 @@
         <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +755,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,15 +763,15 @@
         <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +779,7 @@
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +787,7 @@
         <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +795,7 @@
         <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +803,7 @@
         <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +811,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +819,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +827,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +835,7 @@
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +843,7 @@
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
